--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8B4F2-9AD4-442C-B6F3-46258A729817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF760C2-10B9-4228-8A27-7829ADD577FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30045" yWindow="600" windowWidth="27045" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -170,6 +170,94 @@
   <si>
     <t>松松</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆猪</t>
+  </si>
+  <si>
+    <t>乌贼女士</t>
+  </si>
+  <si>
+    <t>魔法精灵</t>
+  </si>
+  <si>
+    <t>魔法娃娃</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘气包</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明天使</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵麋鹿</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽光晴晴</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰猪</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石猪</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩猪</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗乌贼</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌贼男士</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌贼女皇</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林之灵</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀眼之灵</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林娃娃</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘气叮叮</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘气当当</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘气森林</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝灵天使</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗天使</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙界魔龙</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1808,9 +1896,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2533,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2600,7 +2685,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="5">
         <v>10101</v>
       </c>
@@ -2618,7 +2703,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="5">
         <v>10102</v>
       </c>
@@ -2673,7 +2758,7 @@
       <c r="C10" s="5">
         <v>30101</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="5">
@@ -2690,7 +2775,7 @@
       <c r="C11" s="5">
         <v>30102</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5">
@@ -2707,7 +2792,7 @@
       <c r="C12" s="5">
         <v>40101</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="5">
@@ -2724,7 +2809,7 @@
       <c r="C13" s="5">
         <v>40102</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="5">
@@ -2741,7 +2826,7 @@
       <c r="C14" s="5">
         <v>40103</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5">
@@ -2758,7 +2843,7 @@
       <c r="C15" s="5">
         <v>40104</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="5">
@@ -2775,7 +2860,7 @@
       <c r="C16" s="5">
         <v>50101</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="5">
@@ -2792,7 +2877,7 @@
       <c r="C17" s="5">
         <v>50102</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="5">
@@ -2809,7 +2894,7 @@
       <c r="C18" s="5">
         <v>50103</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="5">
@@ -2826,7 +2911,7 @@
       <c r="C19" s="5">
         <v>50104</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5">
@@ -2843,7 +2928,7 @@
       <c r="C20" s="5">
         <v>60101</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="5">
@@ -2860,7 +2945,7 @@
       <c r="C21" s="5">
         <v>60102</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="5">
@@ -2877,7 +2962,7 @@
       <c r="C22" s="5">
         <v>60103</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="5">
@@ -2894,7 +2979,7 @@
       <c r="C23" s="5">
         <v>70101</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="5">
@@ -2911,7 +2996,7 @@
       <c r="C24" s="5">
         <v>70102</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="5">
@@ -2928,7 +3013,7 @@
       <c r="C25" s="5">
         <v>70103</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="5">
@@ -2945,7 +3030,7 @@
       <c r="C26" s="5">
         <v>70104</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="5">
@@ -2962,7 +3047,7 @@
       <c r="C27" s="5">
         <v>80101</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="5">
@@ -2979,7 +3064,7 @@
       <c r="C28" s="5">
         <v>80102</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="5">
@@ -2992,14 +3077,416 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="5">
+        <v>90101</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1000901</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1000901</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="5">
+        <v>90102</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1000902</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1000902</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="5">
+        <v>90103</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1000903</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1000903</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="5">
+        <v>90104</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1000904</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1000904</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="5">
+        <v>100101</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1001001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1001001</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="5">
+        <v>100102</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1001002</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1001002</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="5">
+        <v>100103</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1001003</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1001003</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="5">
+        <v>100104</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1001004</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1001004</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="5">
+        <v>110101</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1001101</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1001101</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="5">
+        <v>110102</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1001102</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1001102</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="5">
+        <v>110103</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1001103</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1001103</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="5">
+        <v>120101</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1001201</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1001201</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="5">
+        <v>120102</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1001202</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1001202</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="5">
+        <v>120103</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1001203</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1001203</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="5">
+        <v>130101</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1001301</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1001301</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="5">
+        <v>130102</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1001302</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1001302</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="5">
+        <v>130103</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1001303</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1001303</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="5">
+        <v>130104</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1001304</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1001304</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="5">
+        <v>140101</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1001401</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1001401</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
+        <v>140102</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1001402</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1001402</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="5">
+        <v>140103</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1001403</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1001403</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
+        <v>200001</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2000001</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2000001</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="5">
+        <v>200002</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2000002</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2000002</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="5">
+        <v>200003</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2000003</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2000003</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Id</t>
   </si>
@@ -61,10 +61,16 @@
     <t>笨笨</t>
   </si>
   <si>
+    <t>全体宠物攻击+30</t>
+  </si>
+  <si>
     <t>松松</t>
   </si>
   <si>
     <t>咪咪</t>
+  </si>
+  <si>
+    <t>全体宠物攻击+50</t>
   </si>
   <si>
     <t>灰灰</t>
@@ -198,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,13 +228,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -260,12 +259,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -274,7 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -289,43 +304,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,16 +311,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,24 +342,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -395,14 +373,28 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,7 +421,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,25 +493,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +541,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,103 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,31 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,15 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -690,6 +667,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,41 +733,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -757,1084 +743,1084 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1844,25 +1830,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
@@ -1873,29 +1859,29 @@
     <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="18"/>
+    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="21"/>
+    <cellStyle name="标题 4" xfId="22" builtinId="19"/>
     <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36"/>
     <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
+    <cellStyle name="标题" xfId="26" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="27"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="28"/>
     <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
+    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="31"/>
+    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="33"/>
+    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="36" builtinId="32"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="37"/>
+    <cellStyle name="常规 5 2 6" xfId="38"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="39"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
     <cellStyle name="输出" xfId="42" builtinId="21"/>
@@ -1903,87 +1889,87 @@
     <cellStyle name="计算" xfId="44" builtinId="22"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
     <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="49"/>
     <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
+    <cellStyle name="汇总" xfId="53" builtinId="25"/>
+    <cellStyle name="好" xfId="54" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="55"/>
+    <cellStyle name="适中" xfId="56" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="57" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="58"/>
+    <cellStyle name="强调文字颜色 1" xfId="59" builtinId="29"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="60"/>
+    <cellStyle name="注释 2 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="62" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="63"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="64" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="66" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="68" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="69" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="70" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="71" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="72" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="73" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="74" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="75" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="76" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="78" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="79" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="82"/>
+    <cellStyle name="常规 2 3 2 4" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="87"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="90"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 3" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
+    <cellStyle name="常规 2 3 2 5" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
+    <cellStyle name="常规 2 3 2 6" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
+    <cellStyle name="常规 2 3 2 7" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
+    <cellStyle name="常规 2 3 3 3" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
+    <cellStyle name="常规 2 3 3 4" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
+    <cellStyle name="常规 2 3 4 3" xfId="109"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
@@ -2006,8 +1992,8 @@
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
+    <cellStyle name="常规 3" xfId="151"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
@@ -2017,27 +2003,27 @@
     <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
+    <cellStyle name="常规 4" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
+    <cellStyle name="常规 5" xfId="166"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
+    <cellStyle name="注释 2" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="173"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="181"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
@@ -2049,42 +2035,42 @@
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="199"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="201"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="203"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="210"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="213"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="217"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="219"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="221"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
+    <cellStyle name="常规 5 7" xfId="225"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
+    <cellStyle name="注释 2 2 3 2" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
@@ -2102,31 +2088,31 @@
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
+    <cellStyle name="注释 2 5 2" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
+    <cellStyle name="常规 2 3 2 2" xfId="251"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="261"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
+    <cellStyle name="常规 2 3 3 5" xfId="267"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
+    <cellStyle name="常规 2 3 3 6" xfId="270"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
@@ -2151,12 +2137,12 @@
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
+    <cellStyle name="注释 2 2" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
+    <cellStyle name="常规 5 6" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
@@ -2178,24 +2164,24 @@
     <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
     <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
     <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
+    <cellStyle name="注释 2 3 2" xfId="323"/>
     <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
     <cellStyle name="常规 2 3 3" xfId="325"/>
     <cellStyle name="常规 2 3 3 2" xfId="326"/>
     <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
     <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
+    <cellStyle name="注释 2 5" xfId="330"/>
     <cellStyle name="常规 2 3 4" xfId="331"/>
     <cellStyle name="常规 2 3 4 2" xfId="332"/>
     <cellStyle name="常规 2 3 5" xfId="333"/>
     <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
+    <cellStyle name="常规 2 3 6" xfId="335"/>
+    <cellStyle name="常规 5 2 2 2" xfId="336"/>
     <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
+    <cellStyle name="常规 2 3 7" xfId="338"/>
+    <cellStyle name="常规 5 2 2 3" xfId="339"/>
     <cellStyle name="常规 2 3 8" xfId="340"/>
     <cellStyle name="常规 5 2 3 2" xfId="341"/>
     <cellStyle name="常规 5 2 4 2" xfId="342"/>
@@ -2540,7 +2526,7 @@
   <dimension ref="B1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2548,8 +2534,7 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="7" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
@@ -2651,8 +2636,8 @@
       <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="3:8">
@@ -2660,7 +2645,7 @@
         <v>20101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6">
         <v>1000201</v>
@@ -2680,7 +2665,7 @@
         <v>20102</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6">
         <v>1000202</v>
@@ -2691,8 +2676,8 @@
       <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="3:8">
@@ -2700,7 +2685,7 @@
         <v>30101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6">
         <v>1000301</v>
@@ -2720,7 +2705,7 @@
         <v>30102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6">
         <v>1000302</v>
@@ -2740,7 +2725,7 @@
         <v>40101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6">
         <v>1000401</v>
@@ -2760,7 +2745,7 @@
         <v>40102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6">
         <v>1000402</v>
@@ -2780,7 +2765,7 @@
         <v>40103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6">
         <v>1000403</v>
@@ -2800,7 +2785,7 @@
         <v>40104</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
         <v>1000404</v>
@@ -2820,7 +2805,7 @@
         <v>50101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6">
         <v>1000501</v>
@@ -2840,7 +2825,7 @@
         <v>50102</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6">
         <v>1000502</v>
@@ -2860,7 +2845,7 @@
         <v>50103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="6">
         <v>1000503</v>
@@ -2880,7 +2865,7 @@
         <v>50104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="6">
         <v>1000504</v>
@@ -2900,7 +2885,7 @@
         <v>60101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6">
         <v>1000601</v>
@@ -2920,7 +2905,7 @@
         <v>60102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
         <v>1000602</v>
@@ -2940,7 +2925,7 @@
         <v>60103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="6">
         <v>1000603</v>
@@ -2960,7 +2945,7 @@
         <v>70101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="6">
         <v>1000701</v>
@@ -2980,7 +2965,7 @@
         <v>70102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6">
         <v>1000702</v>
@@ -3000,7 +2985,7 @@
         <v>70103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="6">
         <v>1000703</v>
@@ -3020,7 +3005,7 @@
         <v>70104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="6">
         <v>1000704</v>
@@ -3040,7 +3025,7 @@
         <v>80101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="6">
         <v>1000801</v>
@@ -3060,7 +3045,7 @@
         <v>80102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="6">
         <v>1000802</v>
@@ -3080,7 +3065,7 @@
         <v>90101</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6">
         <v>1000901</v>
@@ -3100,7 +3085,7 @@
         <v>90102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6">
         <v>1000902</v>
@@ -3120,7 +3105,7 @@
         <v>90103</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="6">
         <v>1000903</v>
@@ -3140,7 +3125,7 @@
         <v>90104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6">
         <v>1000904</v>
@@ -3160,7 +3145,7 @@
         <v>100101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="6">
         <v>1001001</v>
@@ -3180,7 +3165,7 @@
         <v>100102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6">
         <v>1001002</v>
@@ -3200,7 +3185,7 @@
         <v>100103</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E35" s="6">
         <v>1001003</v>
@@ -3220,7 +3205,7 @@
         <v>100104</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="6">
         <v>1001004</v>
@@ -3240,7 +3225,7 @@
         <v>110101</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6">
         <v>1001101</v>
@@ -3260,7 +3245,7 @@
         <v>110102</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="6">
         <v>1001102</v>
@@ -3280,7 +3265,7 @@
         <v>110103</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" s="6">
         <v>1001103</v>
@@ -3300,7 +3285,7 @@
         <v>120101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="6">
         <v>1001201</v>
@@ -3320,7 +3305,7 @@
         <v>120102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" s="6">
         <v>1001202</v>
@@ -3340,7 +3325,7 @@
         <v>120103</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="6">
         <v>1001203</v>
@@ -3360,7 +3345,7 @@
         <v>130101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="6">
         <v>1001301</v>
@@ -3380,7 +3365,7 @@
         <v>130102</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E44" s="6">
         <v>1001302</v>
@@ -3400,7 +3385,7 @@
         <v>130103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6">
         <v>1001303</v>
@@ -3420,7 +3405,7 @@
         <v>130104</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E46" s="6">
         <v>1001304</v>
@@ -3440,7 +3425,7 @@
         <v>140101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E47" s="6">
         <v>1001401</v>
@@ -3460,7 +3445,7 @@
         <v>140102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E48" s="6">
         <v>1001402</v>
@@ -3480,7 +3465,7 @@
         <v>140103</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E49" s="6">
         <v>1001403</v>
@@ -3500,7 +3485,7 @@
         <v>200001</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E50" s="6">
         <v>2000001</v>
@@ -3520,7 +3505,7 @@
         <v>200002</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E51" s="6">
         <v>2000002</v>
@@ -3540,7 +3525,7 @@
         <v>200003</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E52" s="6">
         <v>2000003</v>

--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>Id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>笨笨</t>
   </si>
   <si>
+    <t>130103,30</t>
+  </si>
+  <si>
     <t>全体宠物攻击+30</t>
   </si>
   <si>
@@ -70,78 +73,153 @@
     <t>咪咪</t>
   </si>
   <si>
+    <t>130003,30</t>
+  </si>
+  <si>
+    <t>全体宠物魔法+30</t>
+  </si>
+  <si>
+    <t>灰灰</t>
+  </si>
+  <si>
+    <t>冰雪</t>
+  </si>
+  <si>
+    <t>130303,30</t>
+  </si>
+  <si>
+    <t>全体宠物魔防+30</t>
+  </si>
+  <si>
+    <t>小掌</t>
+  </si>
+  <si>
+    <t>灵灵</t>
+  </si>
+  <si>
+    <t>130403,300</t>
+  </si>
+  <si>
+    <t>全体宠物生命+300</t>
+  </si>
+  <si>
+    <t>牛仔</t>
+  </si>
+  <si>
+    <t>130203,30</t>
+  </si>
+  <si>
+    <t>全体宠物防御+30</t>
+  </si>
+  <si>
+    <t>花花</t>
+  </si>
+  <si>
+    <t>230103,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物暴击率+1%</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>咻咻</t>
+  </si>
+  <si>
+    <t>绿芽</t>
+  </si>
+  <si>
+    <t>冰冰</t>
+  </si>
+  <si>
+    <t>230303,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物闪避率+1%</t>
+  </si>
+  <si>
+    <t>小蓝</t>
+  </si>
+  <si>
+    <t>乐乐</t>
+  </si>
+  <si>
+    <t>飞飞</t>
+  </si>
+  <si>
+    <t>130102,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物攻击+1%</t>
+  </si>
+  <si>
+    <t>小绿</t>
+  </si>
+  <si>
+    <t>小爱</t>
+  </si>
+  <si>
+    <t>130203,50</t>
+  </si>
+  <si>
+    <t>全体宠物防御+50</t>
+  </si>
+  <si>
+    <t>小冰</t>
+  </si>
+  <si>
+    <t>230203,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物命中率+1%</t>
+  </si>
+  <si>
+    <t>火火</t>
+  </si>
+  <si>
+    <t>130002,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物魔法+1%</t>
+  </si>
+  <si>
+    <t>啵啵</t>
+  </si>
+  <si>
+    <t>萌萌</t>
+  </si>
+  <si>
+    <t>130103,50</t>
+  </si>
+  <si>
     <t>全体宠物攻击+50</t>
   </si>
   <si>
-    <t>灰灰</t>
-  </si>
-  <si>
-    <t>冰雪</t>
-  </si>
-  <si>
-    <t>小掌</t>
-  </si>
-  <si>
-    <t>灵灵</t>
-  </si>
-  <si>
-    <t>牛仔</t>
-  </si>
-  <si>
-    <t>花花</t>
-  </si>
-  <si>
-    <t>小红</t>
-  </si>
-  <si>
-    <t>咻咻</t>
-  </si>
-  <si>
-    <t>绿芽</t>
-  </si>
-  <si>
-    <t>冰冰</t>
-  </si>
-  <si>
-    <t>小蓝</t>
-  </si>
-  <si>
-    <t>乐乐</t>
-  </si>
-  <si>
-    <t>飞飞</t>
-  </si>
-  <si>
-    <t>小绿</t>
-  </si>
-  <si>
-    <t>小爱</t>
-  </si>
-  <si>
-    <t>小冰</t>
-  </si>
-  <si>
-    <t>火火</t>
-  </si>
-  <si>
-    <t>啵啵</t>
-  </si>
-  <si>
-    <t>萌萌</t>
-  </si>
-  <si>
     <t>雷霆猪</t>
   </si>
   <si>
     <t>岩石猪</t>
   </si>
   <si>
+    <t>130403,500</t>
+  </si>
+  <si>
+    <t>全体宠物生命+500</t>
+  </si>
+  <si>
     <t>火焰猪</t>
   </si>
   <si>
     <t>熔岩猪</t>
   </si>
   <si>
+    <t>130402,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物生命+1%</t>
+  </si>
+  <si>
     <t>乌贼女士</t>
   </si>
   <si>
@@ -154,19 +232,40 @@
     <t>乌贼女皇</t>
   </si>
   <si>
+    <t>130202,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物物防+1%</t>
+  </si>
+  <si>
     <t>魔法精灵</t>
   </si>
   <si>
     <t>森林之灵</t>
   </si>
   <si>
+    <t>全体宠物魔防+50</t>
+  </si>
+  <si>
     <t>耀眼之灵</t>
   </si>
   <si>
+    <t>130302,0.01</t>
+  </si>
+  <si>
+    <t>全体宠物魔防+1%</t>
+  </si>
+  <si>
     <t>魔法娃娃</t>
   </si>
   <si>
     <t>森林娃娃</t>
+  </si>
+  <si>
+    <t>130003,50</t>
+  </si>
+  <si>
+    <t>全体宠物魔法+50</t>
   </si>
   <si>
     <t>淘气叮叮</t>
@@ -204,9 +303,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -257,16 +356,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -281,15 +379,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,7 +419,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,77 +485,9 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -421,7 +520,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,67 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,67 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +676,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,6 +740,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -652,6 +760,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,11 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,23 +826,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,274 +846,861 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,678 +1710,73 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1703,128 +1802,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1840,13 +1939,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="362">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
     <cellStyle name="输入" xfId="6" builtinId="20"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
@@ -1879,9 +1984,9 @@
     <cellStyle name="标题 3" xfId="34" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="35"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="36" builtinId="32"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="37"/>
-    <cellStyle name="常规 5 2 6" xfId="38"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="39"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38"/>
+    <cellStyle name="常规 5 2 6" xfId="39"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
     <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
     <cellStyle name="输出" xfId="42" builtinId="21"/>
@@ -1891,8 +1996,8 @@
     <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="49"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
+    <cellStyle name="注释 2 3" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="50"/>
     <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
     <cellStyle name="汇总" xfId="53" builtinId="25"/>
@@ -1902,8 +2007,8 @@
     <cellStyle name="20% - 强调文字颜色 5" xfId="57" builtinId="46"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="58"/>
     <cellStyle name="强调文字颜色 1" xfId="59" builtinId="29"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="60"/>
-    <cellStyle name="注释 2 3 3" xfId="61"/>
+    <cellStyle name="注释 2 3 3" xfId="60"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="61"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="62" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="63"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="64" builtinId="31"/>
@@ -1923,53 +2028,53 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="78" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="79" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="81"/>
+    <cellStyle name="常规 2 3 2 4" xfId="81"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="82"/>
-    <cellStyle name="常规 2 3 2 4" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="83"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="84"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="86"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="86"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="87"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="89"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="88"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="89"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="90"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 3" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="91"/>
+    <cellStyle name="常规 2 3 2 3" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3 2 5" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="常规 2 3 2 5" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
+    <cellStyle name="常规 2 3 2 6" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="常规 2 3 2 6" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
+    <cellStyle name="常规 2 3 2 7" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="常规 2 3 2 7" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
-    <cellStyle name="常规 2 3 3 3" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
+    <cellStyle name="常规 2 3 3 3" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
+    <cellStyle name="常规 2 3 3 4" xfId="105"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="常规 2 3 3 4" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
-    <cellStyle name="常规 2 3 4 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
+    <cellStyle name="常规 2 3 4 3" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="127"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
@@ -1992,8 +2097,8 @@
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
-    <cellStyle name="常规 3" xfId="151"/>
+    <cellStyle name="常规 3" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
@@ -2003,27 +2108,27 @@
     <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
-    <cellStyle name="常规 4" xfId="162"/>
+    <cellStyle name="常规 4" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
-    <cellStyle name="常规 5" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
-    <cellStyle name="注释 2" xfId="168"/>
+    <cellStyle name="常规 5" xfId="165"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
+    <cellStyle name="注释 2" xfId="167"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="173"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="177"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="179"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
@@ -2035,42 +2140,42 @@
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="203"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="215"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="223"/>
+    <cellStyle name="常规 5 7" xfId="223"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="常规 5 7" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
-    <cellStyle name="注释 2 2 3 2" xfId="228"/>
+    <cellStyle name="注释 2 2 3 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
@@ -2088,31 +2193,31 @@
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
-    <cellStyle name="注释 2 5 2" xfId="247"/>
+    <cellStyle name="注释 2 5 2" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
-    <cellStyle name="常规 2 3 2 2" xfId="251"/>
+    <cellStyle name="常规 2 3 2 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="261"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
-    <cellStyle name="常规 2 3 3 5" xfId="267"/>
+    <cellStyle name="常规 2 3 3 5" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
-    <cellStyle name="常规 2 3 3 6" xfId="270"/>
+    <cellStyle name="常规 2 3 3 6" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
@@ -2137,12 +2242,12 @@
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
-    <cellStyle name="注释 2 2" xfId="296"/>
+    <cellStyle name="注释 2 2" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
-    <cellStyle name="常规 5 6" xfId="300"/>
+    <cellStyle name="常规 5 6" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
@@ -2164,24 +2269,24 @@
     <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
     <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
     <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
-    <cellStyle name="注释 2 3 2" xfId="323"/>
+    <cellStyle name="注释 2 3 2" xfId="322"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
     <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
     <cellStyle name="常规 2 3 3" xfId="325"/>
     <cellStyle name="常规 2 3 3 2" xfId="326"/>
     <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
     <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
-    <cellStyle name="注释 2 5" xfId="330"/>
+    <cellStyle name="注释 2 5" xfId="329"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
     <cellStyle name="常规 2 3 4" xfId="331"/>
     <cellStyle name="常规 2 3 4 2" xfId="332"/>
     <cellStyle name="常规 2 3 5" xfId="333"/>
     <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
-    <cellStyle name="常规 5 2 2 2" xfId="336"/>
+    <cellStyle name="常规 5 2 2 2" xfId="335"/>
+    <cellStyle name="常规 2 3 6" xfId="336"/>
     <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 2 3 7" xfId="338"/>
-    <cellStyle name="常规 5 2 2 3" xfId="339"/>
+    <cellStyle name="常规 5 2 2 3" xfId="338"/>
+    <cellStyle name="常规 2 3 7" xfId="339"/>
     <cellStyle name="常规 2 3 8" xfId="340"/>
     <cellStyle name="常规 5 2 3 2" xfId="341"/>
     <cellStyle name="常规 5 2 4 2" xfId="342"/>
@@ -2526,7 +2631,7 @@
   <dimension ref="B1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G13:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2615,9 +2720,7 @@
       <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:8">
       <c r="B7" s="5"/>
@@ -2633,11 +2736,11 @@
       <c r="F7" s="6">
         <v>1000102</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="3:8">
@@ -2645,7 +2748,7 @@
         <v>20101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6">
         <v>1000201</v>
@@ -2656,16 +2759,14 @@
       <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="3:8">
       <c r="C9" s="6">
         <v>20102</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6">
         <v>1000202</v>
@@ -2673,11 +2774,11 @@
       <c r="F9" s="6">
         <v>1000202</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
+      <c r="G9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="3:8">
@@ -2685,7 +2786,7 @@
         <v>30101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6">
         <v>1000301</v>
@@ -2696,16 +2797,14 @@
       <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="3:8">
       <c r="C11" s="6">
         <v>30102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6">
         <v>1000302</v>
@@ -2713,11 +2812,11 @@
       <c r="F11" s="6">
         <v>1000302</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
+      <c r="G11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="3:8">
@@ -2725,7 +2824,7 @@
         <v>40101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6">
         <v>1000401</v>
@@ -2736,16 +2835,14 @@
       <c r="G12" s="6">
         <v>0</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="3:8">
       <c r="C13" s="6">
         <v>40102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6">
         <v>1000402</v>
@@ -2753,11 +2850,11 @@
       <c r="F13" s="6">
         <v>1000402</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
+      <c r="G13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:8">
@@ -2765,7 +2862,7 @@
         <v>40103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6">
         <v>1000403</v>
@@ -2773,11 +2870,11 @@
       <c r="F14" s="6">
         <v>1000403</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:8">
@@ -2785,7 +2882,7 @@
         <v>40104</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E15" s="6">
         <v>1000404</v>
@@ -2793,11 +2890,11 @@
       <c r="F15" s="6">
         <v>1000404</v>
       </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="3:8">
@@ -2805,7 +2902,7 @@
         <v>50101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E16" s="6">
         <v>1000501</v>
@@ -2816,16 +2913,14 @@
       <c r="G16" s="6">
         <v>0</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="3:8">
       <c r="C17" s="6">
         <v>50102</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E17" s="6">
         <v>1000502</v>
@@ -2833,11 +2928,11 @@
       <c r="F17" s="6">
         <v>1000502</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
+      <c r="G17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="3:8">
@@ -2845,7 +2940,7 @@
         <v>50103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E18" s="6">
         <v>1000503</v>
@@ -2853,11 +2948,11 @@
       <c r="F18" s="6">
         <v>1000503</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="3:8">
@@ -2865,7 +2960,7 @@
         <v>50104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6">
         <v>1000504</v>
@@ -2873,11 +2968,11 @@
       <c r="F19" s="6">
         <v>1000504</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
+      <c r="G19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="3:8">
@@ -2885,7 +2980,7 @@
         <v>60101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6">
         <v>1000601</v>
@@ -2896,16 +2991,14 @@
       <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="3:8">
       <c r="C21" s="6">
         <v>60102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E21" s="6">
         <v>1000602</v>
@@ -2913,11 +3006,11 @@
       <c r="F21" s="6">
         <v>1000602</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
+      <c r="G21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="3:8">
@@ -2925,7 +3018,7 @@
         <v>60103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E22" s="6">
         <v>1000603</v>
@@ -2933,11 +3026,11 @@
       <c r="F22" s="6">
         <v>1000603</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
+      <c r="G22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="3:8">
@@ -2945,7 +3038,7 @@
         <v>70101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E23" s="6">
         <v>1000701</v>
@@ -2956,16 +3049,14 @@
       <c r="G23" s="6">
         <v>0</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="3:8">
       <c r="C24" s="6">
         <v>70102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E24" s="6">
         <v>1000702</v>
@@ -2973,11 +3064,11 @@
       <c r="F24" s="6">
         <v>1000702</v>
       </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
+      <c r="G24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="3:8">
@@ -2985,7 +3076,7 @@
         <v>70103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E25" s="6">
         <v>1000703</v>
@@ -2993,11 +3084,11 @@
       <c r="F25" s="6">
         <v>1000703</v>
       </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
+      <c r="G25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1" spans="3:8">
@@ -3005,7 +3096,7 @@
         <v>70104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6">
         <v>1000704</v>
@@ -3013,11 +3104,11 @@
       <c r="F26" s="6">
         <v>1000704</v>
       </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
+      <c r="G26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="3:8">
@@ -3025,7 +3116,7 @@
         <v>80101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6">
         <v>1000801</v>
@@ -3036,16 +3127,14 @@
       <c r="G27" s="6">
         <v>0</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="3:8">
       <c r="C28" s="6">
         <v>80102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E28" s="6">
         <v>1000802</v>
@@ -3053,11 +3142,11 @@
       <c r="F28" s="6">
         <v>1000802</v>
       </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
+      <c r="G28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="3:8">
@@ -3065,7 +3154,7 @@
         <v>90101</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6">
         <v>1000901</v>
@@ -3076,16 +3165,14 @@
       <c r="G29" s="6">
         <v>0</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="3:8">
       <c r="C30" s="6">
         <v>90102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E30" s="6">
         <v>1000902</v>
@@ -3093,11 +3180,11 @@
       <c r="F30" s="6">
         <v>1000902</v>
       </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
+      <c r="G30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="20.1" customHeight="1" spans="3:8">
@@ -3105,7 +3192,7 @@
         <v>90103</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E31" s="6">
         <v>1000903</v>
@@ -3113,11 +3200,11 @@
       <c r="F31" s="6">
         <v>1000903</v>
       </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
+      <c r="G31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="20.1" customHeight="1" spans="3:8">
@@ -3125,7 +3212,7 @@
         <v>90104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E32" s="6">
         <v>1000904</v>
@@ -3133,11 +3220,11 @@
       <c r="F32" s="6">
         <v>1000904</v>
       </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
+      <c r="G32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" ht="20.1" customHeight="1" spans="3:8">
@@ -3145,7 +3232,7 @@
         <v>100101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E33" s="6">
         <v>1001001</v>
@@ -3156,16 +3243,14 @@
       <c r="G33" s="6">
         <v>0</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" ht="20.1" customHeight="1" spans="3:8">
       <c r="C34" s="6">
         <v>100102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E34" s="6">
         <v>1001002</v>
@@ -3173,11 +3258,11 @@
       <c r="F34" s="6">
         <v>1001002</v>
       </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
+      <c r="G34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="3:8">
@@ -3185,7 +3270,7 @@
         <v>100103</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6">
         <v>1001003</v>
@@ -3193,11 +3278,11 @@
       <c r="F35" s="6">
         <v>1001003</v>
       </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
+      <c r="G35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="3:8">
@@ -3205,7 +3290,7 @@
         <v>100104</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E36" s="6">
         <v>1001004</v>
@@ -3213,11 +3298,11 @@
       <c r="F36" s="6">
         <v>1001004</v>
       </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
+      <c r="G36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="3:8">
@@ -3225,7 +3310,7 @@
         <v>110101</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E37" s="6">
         <v>1001101</v>
@@ -3236,16 +3321,14 @@
       <c r="G37" s="6">
         <v>0</v>
       </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="3:8">
       <c r="C38" s="6">
         <v>110102</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E38" s="6">
         <v>1001102</v>
@@ -3253,11 +3336,11 @@
       <c r="F38" s="6">
         <v>1001102</v>
       </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" ht="20.1" customHeight="1" spans="3:8">
@@ -3265,7 +3348,7 @@
         <v>110103</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E39" s="6">
         <v>1001103</v>
@@ -3273,11 +3356,11 @@
       <c r="F39" s="6">
         <v>1001103</v>
       </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
+      <c r="G39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="3:8">
@@ -3285,7 +3368,7 @@
         <v>120101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E40" s="6">
         <v>1001201</v>
@@ -3296,16 +3379,14 @@
       <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="3:8">
       <c r="C41" s="6">
         <v>120102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E41" s="6">
         <v>1001202</v>
@@ -3313,11 +3394,11 @@
       <c r="F41" s="6">
         <v>1001202</v>
       </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
+      <c r="G41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="3:8">
@@ -3325,7 +3406,7 @@
         <v>120103</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E42" s="6">
         <v>1001203</v>
@@ -3333,11 +3414,11 @@
       <c r="F42" s="6">
         <v>1001203</v>
       </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
+      <c r="G42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="3:8">
@@ -3345,7 +3426,7 @@
         <v>130101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E43" s="6">
         <v>1001301</v>
@@ -3356,16 +3437,14 @@
       <c r="G43" s="6">
         <v>0</v>
       </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="3:8">
       <c r="C44" s="6">
         <v>130102</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E44" s="6">
         <v>1001302</v>
@@ -3373,11 +3452,11 @@
       <c r="F44" s="6">
         <v>1001302</v>
       </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
+      <c r="G44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="3:8">
@@ -3385,7 +3464,7 @@
         <v>130103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E45" s="6">
         <v>1001303</v>
@@ -3393,11 +3472,11 @@
       <c r="F45" s="6">
         <v>1001303</v>
       </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
+      <c r="G45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="3:8">
@@ -3405,7 +3484,7 @@
         <v>130104</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E46" s="6">
         <v>1001304</v>
@@ -3413,11 +3492,11 @@
       <c r="F46" s="6">
         <v>1001304</v>
       </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
+      <c r="G46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="3:8">
@@ -3425,7 +3504,7 @@
         <v>140101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E47" s="6">
         <v>1001401</v>
@@ -3436,16 +3515,14 @@
       <c r="G47" s="6">
         <v>0</v>
       </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="3:8">
       <c r="C48" s="6">
         <v>140102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E48" s="6">
         <v>1001402</v>
@@ -3453,11 +3530,11 @@
       <c r="F48" s="6">
         <v>1001402</v>
       </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
+      <c r="G48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="3:8">
@@ -3465,7 +3542,7 @@
         <v>140103</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E49" s="6">
         <v>1001403</v>
@@ -3473,11 +3550,11 @@
       <c r="F49" s="6">
         <v>1001403</v>
       </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
+      <c r="G49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="3:8">
@@ -3485,7 +3562,7 @@
         <v>200001</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E50" s="6">
         <v>2000001</v>
@@ -3496,16 +3573,14 @@
       <c r="G50" s="6">
         <v>0</v>
       </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="3:8">
       <c r="C51" s="6">
         <v>200002</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E51" s="6">
         <v>2000002</v>
@@ -3516,16 +3591,14 @@
       <c r="G51" s="6">
         <v>0</v>
       </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="3:8">
       <c r="C52" s="6">
         <v>200003</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E52" s="6">
         <v>2000003</v>
@@ -3536,9 +3609,7 @@
       <c r="G52" s="6">
         <v>0</v>
       </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" ht="20.1" customHeight="1"/>
     <row r="54" ht="20.1" customHeight="1"/>

--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607A613B-3C8D-4352-B07B-ABBA6EFB6E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BE0E7-3ADE-41A9-A386-FCE45EA006B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -49,292 +49,199 @@
     <t>SkinID</t>
   </si>
   <si>
+    <t>PripertyShow</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>呆呆</t>
+  </si>
+  <si>
+    <t>笨笨</t>
+  </si>
+  <si>
+    <t>松松</t>
+  </si>
+  <si>
+    <t>咪咪</t>
+  </si>
+  <si>
+    <t>灰灰</t>
+  </si>
+  <si>
+    <t>冰雪</t>
+  </si>
+  <si>
+    <t>小掌</t>
+  </si>
+  <si>
+    <t>灵灵</t>
+  </si>
+  <si>
+    <t>牛仔</t>
+  </si>
+  <si>
+    <t>花花</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>咻咻</t>
+  </si>
+  <si>
+    <t>绿芽</t>
+  </si>
+  <si>
+    <t>冰冰</t>
+  </si>
+  <si>
+    <t>小蓝</t>
+  </si>
+  <si>
+    <t>乐乐</t>
+  </si>
+  <si>
+    <t>飞飞</t>
+  </si>
+  <si>
+    <t>小绿</t>
+  </si>
+  <si>
+    <t>小爱</t>
+  </si>
+  <si>
+    <t>小冰</t>
+  </si>
+  <si>
+    <t>火火</t>
+  </si>
+  <si>
+    <t>啵啵</t>
+  </si>
+  <si>
+    <t>萌萌</t>
+  </si>
+  <si>
+    <t>雷霆猪</t>
+  </si>
+  <si>
+    <t>岩石猪</t>
+  </si>
+  <si>
+    <t>火焰猪</t>
+  </si>
+  <si>
+    <t>熔岩猪</t>
+  </si>
+  <si>
+    <t>乌贼女士</t>
+  </si>
+  <si>
+    <t>黑暗乌贼</t>
+  </si>
+  <si>
+    <t>乌贼男士</t>
+  </si>
+  <si>
+    <t>乌贼女皇</t>
+  </si>
+  <si>
+    <t>魔法精灵</t>
+  </si>
+  <si>
+    <t>森林之灵</t>
+  </si>
+  <si>
+    <t>耀眼之灵</t>
+  </si>
+  <si>
+    <t>魔法娃娃</t>
+  </si>
+  <si>
+    <t>森林娃娃</t>
+  </si>
+  <si>
+    <t>淘气叮叮</t>
+  </si>
+  <si>
+    <t>淘气包</t>
+  </si>
+  <si>
+    <t>淘气森林</t>
+  </si>
+  <si>
+    <t>淘气当当</t>
+  </si>
+  <si>
+    <t>光明天使</t>
+  </si>
+  <si>
+    <t>蓝灵天使</t>
+  </si>
+  <si>
+    <t>黑暗天使</t>
+  </si>
+  <si>
+    <t>精灵麋鹿</t>
+  </si>
+  <si>
+    <t>幽光晴晴</t>
+  </si>
+  <si>
+    <t>仙界魔龙</t>
+  </si>
+  <si>
+    <t>铁甲勇士</t>
+  </si>
+  <si>
+    <t>迷狐之妖</t>
+  </si>
+  <si>
+    <t>爱心之灵</t>
+  </si>
+  <si>
     <t>PripertySet</t>
-  </si>
-  <si>
-    <t>PripertyShow</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>呆呆</t>
-  </si>
-  <si>
-    <t>笨笨</t>
-  </si>
-  <si>
-    <t>130103,30</t>
-  </si>
-  <si>
-    <t>全体宠物攻击+30</t>
-  </si>
-  <si>
-    <t>松松</t>
-  </si>
-  <si>
-    <t>咪咪</t>
-  </si>
-  <si>
-    <t>130003,30</t>
-  </si>
-  <si>
-    <t>全体宠物魔法+30</t>
-  </si>
-  <si>
-    <t>灰灰</t>
-  </si>
-  <si>
-    <t>冰雪</t>
-  </si>
-  <si>
-    <t>130303,30</t>
-  </si>
-  <si>
-    <t>全体宠物魔防+30</t>
-  </si>
-  <si>
-    <t>小掌</t>
-  </si>
-  <si>
-    <t>灵灵</t>
-  </si>
-  <si>
-    <t>130403,300</t>
-  </si>
-  <si>
-    <t>全体宠物生命+300</t>
-  </si>
-  <si>
-    <t>牛仔</t>
-  </si>
-  <si>
-    <t>130203,30</t>
-  </si>
-  <si>
-    <t>全体宠物防御+30</t>
-  </si>
-  <si>
-    <t>花花</t>
-  </si>
-  <si>
-    <t>230103,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物暴击率+1%</t>
-  </si>
-  <si>
-    <t>小红</t>
-  </si>
-  <si>
-    <t>咻咻</t>
-  </si>
-  <si>
-    <t>绿芽</t>
-  </si>
-  <si>
-    <t>冰冰</t>
-  </si>
-  <si>
-    <t>230303,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物闪避率+1%</t>
-  </si>
-  <si>
-    <t>小蓝</t>
-  </si>
-  <si>
-    <t>乐乐</t>
-  </si>
-  <si>
-    <t>飞飞</t>
-  </si>
-  <si>
-    <t>130102,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物攻击+1%</t>
-  </si>
-  <si>
-    <t>小绿</t>
-  </si>
-  <si>
-    <t>小爱</t>
-  </si>
-  <si>
-    <t>130203,50</t>
-  </si>
-  <si>
-    <t>全体宠物防御+50</t>
-  </si>
-  <si>
-    <t>小冰</t>
-  </si>
-  <si>
-    <t>230203,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物命中率+1%</t>
-  </si>
-  <si>
-    <t>火火</t>
-  </si>
-  <si>
-    <t>130002,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物魔法+1%</t>
-  </si>
-  <si>
-    <t>啵啵</t>
-  </si>
-  <si>
-    <t>萌萌</t>
-  </si>
-  <si>
-    <t>130103,50</t>
-  </si>
-  <si>
-    <t>全体宠物攻击+50</t>
-  </si>
-  <si>
-    <t>雷霆猪</t>
-  </si>
-  <si>
-    <t>岩石猪</t>
-  </si>
-  <si>
-    <t>130403,500</t>
-  </si>
-  <si>
-    <t>全体宠物生命+500</t>
-  </si>
-  <si>
-    <t>火焰猪</t>
-  </si>
-  <si>
-    <t>熔岩猪</t>
-  </si>
-  <si>
-    <t>130402,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物生命+1%</t>
-  </si>
-  <si>
-    <t>乌贼女士</t>
-  </si>
-  <si>
-    <t>黑暗乌贼</t>
-  </si>
-  <si>
-    <t>乌贼男士</t>
-  </si>
-  <si>
-    <t>乌贼女皇</t>
-  </si>
-  <si>
-    <t>130202,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物物防+1%</t>
-  </si>
-  <si>
-    <t>魔法精灵</t>
-  </si>
-  <si>
-    <t>森林之灵</t>
-  </si>
-  <si>
-    <t>全体宠物魔防+50</t>
-  </si>
-  <si>
-    <t>耀眼之灵</t>
-  </si>
-  <si>
-    <t>130302,0.01</t>
-  </si>
-  <si>
-    <t>全体宠物魔防+1%</t>
-  </si>
-  <si>
-    <t>魔法娃娃</t>
-  </si>
-  <si>
-    <t>森林娃娃</t>
-  </si>
-  <si>
-    <t>130003,50</t>
-  </si>
-  <si>
-    <t>全体宠物魔法+50</t>
-  </si>
-  <si>
-    <t>淘气叮叮</t>
-  </si>
-  <si>
-    <t>淘气包</t>
-  </si>
-  <si>
-    <t>淘气森林</t>
-  </si>
-  <si>
-    <t>淘气当当</t>
-  </si>
-  <si>
-    <t>光明天使</t>
-  </si>
-  <si>
-    <t>蓝灵天使</t>
-  </si>
-  <si>
-    <t>黑暗天使</t>
-  </si>
-  <si>
-    <t>精灵麋鹿</t>
-  </si>
-  <si>
-    <t>幽光晴晴</t>
-  </si>
-  <si>
-    <t>仙界魔龙</t>
-  </si>
-  <si>
-    <t>铁甲勇士</t>
-  </si>
-  <si>
-    <t>迷狐之妖</t>
-  </si>
-  <si>
-    <t>爱心之灵</t>
-  </si>
-  <si>
-    <t>全体宠物闪避率+1%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>全体宠物命中率+1%</t>
+    <t>100202,0.03;100402,0.03;100602,0.03;100802,0.03;101002,0.03</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>230203,0.01</t>
+    <t>全属性提升3%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>全体宠物暴击率+1%</t>
+    <t>全属性提升1%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>230103,0.01</t>
+    <t>全属性提升5%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>130103,50</t>
+    <t>100202,0.01;100402,0.01;100602,0.01;100802,0.01;101002,0.01</t>
+  </si>
+  <si>
+    <t>100202,0.05;100402,0.05;100602,0.05;100802,0.05;101002,0.05</t>
+  </si>
+  <si>
+    <t>100202,0.02;100402,0.02;100602,0.02;100802,0.02;101002,0.02</t>
+  </si>
+  <si>
+    <t>全属性提升2%</t>
+  </si>
+  <si>
+    <t>全属性提升10%</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.1;100402,0.1;100602,0.1;100802,0.1;101002,0.1</t>
   </si>
 </sst>
 </file>
@@ -352,6 +259,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -359,12 +267,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -372,12 +282,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -385,6 +297,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1494,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1508,9 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2161,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H58" sqref="C58:H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2170,7 +2080,8 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="8" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2208,30 +2119,30 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2240,7 +2151,7 @@
         <v>10101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6">
         <v>1000101</v>
@@ -2259,7 +2170,7 @@
         <v>10102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6">
         <v>1000102</v>
@@ -2268,10 +2179,10 @@
         <v>1000102</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2190,7 @@
         <v>20101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6">
         <v>1000201</v>
@@ -2297,7 +2208,7 @@
         <v>20102</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6">
         <v>1000202</v>
@@ -2306,10 +2217,10 @@
         <v>1000202</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2317,7 +2228,7 @@
         <v>30101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6">
         <v>1000301</v>
@@ -2335,7 +2246,7 @@
         <v>30102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6">
         <v>1000302</v>
@@ -2344,10 +2255,10 @@
         <v>1000302</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2266,7 @@
         <v>40101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6">
         <v>1000401</v>
@@ -2373,7 +2284,7 @@
         <v>40102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6">
         <v>1000402</v>
@@ -2381,11 +2292,11 @@
       <c r="F13" s="6">
         <v>1000402</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>27</v>
+      <c r="G13" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,7 +2304,7 @@
         <v>40103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6">
         <v>1000403</v>
@@ -2402,10 +2313,10 @@
         <v>1000403</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,7 +2324,7 @@
         <v>40104</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6">
         <v>1000404</v>
@@ -2422,10 +2333,10 @@
         <v>1000404</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2433,7 +2344,7 @@
         <v>50101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6">
         <v>1000501</v>
@@ -2451,7 +2362,7 @@
         <v>50102</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E17" s="6">
         <v>1000502</v>
@@ -2460,10 +2371,10 @@
         <v>1000502</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,7 +2382,7 @@
         <v>50103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6">
         <v>1000503</v>
@@ -2480,10 +2391,10 @@
         <v>1000503</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,7 +2402,7 @@
         <v>50104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6">
         <v>1000504</v>
@@ -2500,10 +2411,10 @@
         <v>1000504</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2511,7 +2422,7 @@
         <v>60101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E20" s="6">
         <v>1000601</v>
@@ -2529,7 +2440,7 @@
         <v>60102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E21" s="6">
         <v>1000602</v>
@@ -2537,11 +2448,11 @@
       <c r="F21" s="6">
         <v>1000602</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>27</v>
+      <c r="G21" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2549,7 +2460,7 @@
         <v>60103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E22" s="6">
         <v>1000603</v>
@@ -2558,10 +2469,10 @@
         <v>1000603</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,7 +2480,7 @@
         <v>70101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E23" s="6">
         <v>1000701</v>
@@ -2587,7 +2498,7 @@
         <v>70102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E24" s="6">
         <v>1000702</v>
@@ -2596,10 +2507,10 @@
         <v>1000702</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,7 +2518,7 @@
         <v>70103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E25" s="6">
         <v>1000703</v>
@@ -2616,10 +2527,10 @@
         <v>1000703</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2627,7 +2538,7 @@
         <v>70104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E26" s="6">
         <v>1000704</v>
@@ -2636,10 +2547,10 @@
         <v>1000704</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,7 +2558,7 @@
         <v>80101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E27" s="6">
         <v>1000801</v>
@@ -2665,7 +2576,7 @@
         <v>80102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E28" s="6">
         <v>1000802</v>
@@ -2674,10 +2585,10 @@
         <v>1000802</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,7 +2596,7 @@
         <v>90101</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E29" s="6">
         <v>1000901</v>
@@ -2703,7 +2614,7 @@
         <v>90102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E30" s="6">
         <v>1000902</v>
@@ -2711,11 +2622,11 @@
       <c r="F30" s="6">
         <v>1000902</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>62</v>
+      <c r="G30" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2723,7 +2634,7 @@
         <v>90103</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E31" s="6">
         <v>1000903</v>
@@ -2732,10 +2643,10 @@
         <v>1000903</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2743,7 +2654,7 @@
         <v>90104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E32" s="6">
         <v>1000904</v>
@@ -2751,11 +2662,11 @@
       <c r="F32" s="6">
         <v>1000904</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>66</v>
+      <c r="G32" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2763,7 +2674,7 @@
         <v>100101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E33" s="6">
         <v>1001001</v>
@@ -2781,7 +2692,7 @@
         <v>100102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6">
         <v>1001002</v>
@@ -2789,11 +2700,11 @@
       <c r="F34" s="6">
         <v>1001002</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>62</v>
+      <c r="G34" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2801,7 +2712,7 @@
         <v>100103</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E35" s="6">
         <v>1001003</v>
@@ -2810,10 +2721,10 @@
         <v>1001003</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2821,7 +2732,7 @@
         <v>100104</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E36" s="6">
         <v>1001004</v>
@@ -2830,10 +2741,10 @@
         <v>1001004</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,7 +2752,7 @@
         <v>110101</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E37" s="6">
         <v>1001101</v>
@@ -2859,7 +2770,7 @@
         <v>110102</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E38" s="6">
         <v>1001102</v>
@@ -2868,10 +2779,10 @@
         <v>1001102</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,7 +2790,7 @@
         <v>110103</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E39" s="6">
         <v>1001103</v>
@@ -2888,10 +2799,10 @@
         <v>1001103</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2899,7 +2810,7 @@
         <v>120101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E40" s="6">
         <v>1001201</v>
@@ -2917,7 +2828,7 @@
         <v>120102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E41" s="6">
         <v>1001202</v>
@@ -2926,10 +2837,10 @@
         <v>1001202</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2937,7 +2848,7 @@
         <v>120103</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E42" s="6">
         <v>1001203</v>
@@ -2946,10 +2857,10 @@
         <v>1001203</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2957,7 +2868,7 @@
         <v>130101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E43" s="6">
         <v>1001301</v>
@@ -2975,7 +2886,7 @@
         <v>130102</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E44" s="6">
         <v>1001302</v>
@@ -2984,10 +2895,10 @@
         <v>1001302</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2995,7 +2906,7 @@
         <v>130103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E45" s="6">
         <v>1001303</v>
@@ -3004,10 +2915,10 @@
         <v>1001303</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3015,7 +2926,7 @@
         <v>130104</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6">
         <v>1001304</v>
@@ -3024,10 +2935,10 @@
         <v>1001304</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3035,7 +2946,7 @@
         <v>140101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6">
         <v>1001401</v>
@@ -3053,7 +2964,7 @@
         <v>140102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6">
         <v>1001402</v>
@@ -3062,10 +2973,10 @@
         <v>1001402</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3073,7 +2984,7 @@
         <v>140103</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6">
         <v>1001403</v>
@@ -3082,10 +2993,10 @@
         <v>1001403</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3093,10 +3004,10 @@
         <v>910101</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E50" s="6">
-        <v>1001401</v>
+        <v>1009101</v>
       </c>
       <c r="F50" s="6">
         <v>1009101</v>
@@ -3111,19 +3022,19 @@
         <v>910102</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E51" s="6">
-        <v>1001401</v>
+        <v>1009102</v>
       </c>
       <c r="F51" s="6">
         <v>1009102</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>102</v>
+      <c r="G51" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,19 +3042,19 @@
         <v>910103</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E52" s="6">
-        <v>1001401</v>
+        <v>1009103</v>
       </c>
       <c r="F52" s="6">
         <v>1009103</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,19 +3062,19 @@
         <v>910104</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E53" s="6">
-        <v>1001401</v>
+        <v>1009104</v>
       </c>
       <c r="F53" s="6">
         <v>1009104</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3171,10 +3082,10 @@
         <v>920101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E54" s="6">
-        <v>1001401</v>
+        <v>1009201</v>
       </c>
       <c r="F54" s="6">
         <v>1009201</v>
@@ -3189,19 +3100,19 @@
         <v>920102</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E55" s="6">
-        <v>1001401</v>
+        <v>1009202</v>
       </c>
       <c r="F55" s="6">
         <v>1009202</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3209,19 +3120,19 @@
         <v>920103</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E56" s="6">
-        <v>1001401</v>
+        <v>1009203</v>
       </c>
       <c r="F56" s="6">
         <v>1009203</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>98</v>
+      <c r="G56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3229,30 +3140,30 @@
         <v>920104</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E57" s="6">
-        <v>1001401</v>
+        <v>1009204</v>
       </c>
       <c r="F57" s="6">
         <v>1009204</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6">
         <v>930101</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>96</v>
+      <c r="D58" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E58" s="6">
-        <v>1001401</v>
+        <v>1009301</v>
       </c>
       <c r="F58" s="6">
         <v>1009301</v>
@@ -3266,60 +3177,60 @@
       <c r="C59" s="6">
         <v>930102</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>96</v>
+      <c r="D59" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E59" s="6">
-        <v>1001401</v>
+        <v>1009302</v>
       </c>
       <c r="F59" s="6">
         <v>1009302</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <v>930103</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>96</v>
+      <c r="D60" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E60" s="6">
-        <v>1001401</v>
+        <v>1009303</v>
       </c>
       <c r="F60" s="6">
         <v>1009303</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>100</v>
+      <c r="G60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
         <v>930104</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>96</v>
+      <c r="D61" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E61" s="6">
-        <v>1001401</v>
+        <v>1009304</v>
       </c>
       <c r="F61" s="6">
         <v>1009304</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,7 +3238,7 @@
         <v>200001</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E62" s="6">
         <v>2000001</v>
@@ -3335,17 +3246,19 @@
       <c r="F62" s="6">
         <v>2000001</v>
       </c>
-      <c r="G62" s="6">
-        <v>0</v>
-      </c>
-      <c r="H62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="6">
         <v>200002</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E63" s="6">
         <v>2000002</v>
@@ -3353,17 +3266,19 @@
       <c r="F63" s="6">
         <v>2000002</v>
       </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="6">
         <v>200003</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="E64" s="6">
         <v>2000003</v>
@@ -3371,10 +3286,12 @@
       <c r="F64" s="6">
         <v>2000003</v>
       </c>
-      <c r="G64" s="6">
-        <v>0</v>
-      </c>
-      <c r="H64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BE0E7-3ADE-41A9-A386-FCE45EA006B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF35CC1-2670-407D-93BE-99BD5F2C3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -61,187 +61,237 @@
     <t>呆呆</t>
   </si>
   <si>
-    <t>笨笨</t>
-  </si>
-  <si>
     <t>松松</t>
   </si>
   <si>
-    <t>咪咪</t>
-  </si>
-  <si>
     <t>灰灰</t>
   </si>
   <si>
-    <t>冰雪</t>
-  </si>
-  <si>
     <t>小掌</t>
   </si>
   <si>
-    <t>灵灵</t>
-  </si>
-  <si>
-    <t>牛仔</t>
-  </si>
-  <si>
-    <t>花花</t>
-  </si>
-  <si>
     <t>小红</t>
   </si>
   <si>
-    <t>咻咻</t>
-  </si>
-  <si>
-    <t>绿芽</t>
-  </si>
-  <si>
-    <t>冰冰</t>
-  </si>
-  <si>
     <t>小蓝</t>
   </si>
   <si>
-    <t>乐乐</t>
-  </si>
-  <si>
-    <t>飞飞</t>
-  </si>
-  <si>
     <t>小绿</t>
   </si>
   <si>
-    <t>小爱</t>
-  </si>
-  <si>
-    <t>小冰</t>
-  </si>
-  <si>
-    <t>火火</t>
-  </si>
-  <si>
     <t>啵啵</t>
   </si>
   <si>
-    <t>萌萌</t>
+    <t>乌贼女士</t>
+  </si>
+  <si>
+    <t>魔法精灵</t>
+  </si>
+  <si>
+    <t>淘气叮叮</t>
+  </si>
+  <si>
+    <t>光明天使</t>
+  </si>
+  <si>
+    <t>铁甲勇士</t>
+  </si>
+  <si>
+    <t>迷狐之妖</t>
+  </si>
+  <si>
+    <t>爱心之灵</t>
+  </si>
+  <si>
+    <t>PripertySet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.03;100402,0.03;100602,0.03;100802,0.03;101002,0.03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性提升3%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性提升1%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性提升5%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.01;100402,0.01;100602,0.01;100802,0.01;101002,0.01</t>
+  </si>
+  <si>
+    <t>100202,0.05;100402,0.05;100602,0.05;100802,0.05;101002,0.05</t>
+  </si>
+  <si>
+    <t>100202,0.02;100402,0.02;100602,0.02;100802,0.02;101002,0.02</t>
+  </si>
+  <si>
+    <t>全属性提升2%</t>
+  </si>
+  <si>
+    <t>全属性提升10%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.1;100402,0.1;100602,0.1;100802,0.1;101002,0.1</t>
+  </si>
+  <si>
+    <t>变异:笨笨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:咪咪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:冰雪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:灵灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:牛仔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:花花</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:咻咻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:绿芽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:冰冰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:乐乐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:飞飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:小爱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:小冰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:火火</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:萌萌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>雷霆猪</t>
-  </si>
-  <si>
-    <t>岩石猪</t>
-  </si>
-  <si>
-    <t>火焰猪</t>
-  </si>
-  <si>
-    <t>熔岩猪</t>
-  </si>
-  <si>
-    <t>乌贼女士</t>
-  </si>
-  <si>
-    <t>黑暗乌贼</t>
-  </si>
-  <si>
-    <t>乌贼男士</t>
-  </si>
-  <si>
-    <t>乌贼女皇</t>
-  </si>
-  <si>
-    <t>魔法精灵</t>
-  </si>
-  <si>
-    <t>森林之灵</t>
-  </si>
-  <si>
-    <t>耀眼之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:岩石猪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:火焰猪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:熔岩猪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:黑暗乌贼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:乌贼男士</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:乌贼女皇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:森林之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:耀眼之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>魔法娃娃</t>
-  </si>
-  <si>
-    <t>森林娃娃</t>
-  </si>
-  <si>
-    <t>淘气叮叮</t>
-  </si>
-  <si>
-    <t>淘气包</t>
-  </si>
-  <si>
-    <t>淘气森林</t>
-  </si>
-  <si>
-    <t>淘气当当</t>
-  </si>
-  <si>
-    <t>光明天使</t>
-  </si>
-  <si>
-    <t>蓝灵天使</t>
-  </si>
-  <si>
-    <t>黑暗天使</t>
-  </si>
-  <si>
-    <t>精灵麋鹿</t>
-  </si>
-  <si>
-    <t>幽光晴晴</t>
-  </si>
-  <si>
-    <t>仙界魔龙</t>
-  </si>
-  <si>
-    <t>铁甲勇士</t>
-  </si>
-  <si>
-    <t>迷狐之妖</t>
-  </si>
-  <si>
-    <t>爱心之灵</t>
-  </si>
-  <si>
-    <t>PripertySet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.03;100402,0.03;100602,0.03;100802,0.03;101002,0.03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全属性提升3%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全属性提升1%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全属性提升5%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.01;100402,0.01;100602,0.01;100802,0.01;101002,0.01</t>
-  </si>
-  <si>
-    <t>100202,0.05;100402,0.05;100602,0.05;100802,0.05;101002,0.05</t>
-  </si>
-  <si>
-    <t>100202,0.02;100402,0.02;100602,0.02;100802,0.02;101002,0.02</t>
-  </si>
-  <si>
-    <t>全属性提升2%</t>
-  </si>
-  <si>
-    <t>全属性提升10%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.1;100402,0.1;100602,0.1;100802,0.1;101002,0.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:森林娃娃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:魔法娃娃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:淘气包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:淘气森林</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:淘气当当</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:蓝灵天使</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:黑暗天使</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:铁甲勇士</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:迷狐之妖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:爱心之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:幽光晴晴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2071,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2119,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2170,7 +2220,7 @@
         <v>10102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6">
         <v>1000102</v>
@@ -2179,10 +2229,10 @@
         <v>1000102</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2190,7 +2240,7 @@
         <v>20101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
         <v>1000201</v>
@@ -2208,7 +2258,7 @@
         <v>20102</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6">
         <v>1000202</v>
@@ -2217,10 +2267,10 @@
         <v>1000202</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2228,7 +2278,7 @@
         <v>30101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6">
         <v>1000301</v>
@@ -2246,7 +2296,7 @@
         <v>30102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6">
         <v>1000302</v>
@@ -2255,10 +2305,10 @@
         <v>1000302</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2266,7 +2316,7 @@
         <v>40101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6">
         <v>1000401</v>
@@ -2284,7 +2334,7 @@
         <v>40102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6">
         <v>1000402</v>
@@ -2293,10 +2343,10 @@
         <v>1000402</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2304,7 +2354,7 @@
         <v>40103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>1000403</v>
@@ -2313,10 +2363,10 @@
         <v>1000403</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2324,7 +2374,7 @@
         <v>40104</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6">
         <v>1000404</v>
@@ -2333,10 +2383,10 @@
         <v>1000404</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2344,7 +2394,7 @@
         <v>50101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E16" s="6">
         <v>1000501</v>
@@ -2362,7 +2412,7 @@
         <v>50102</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6">
         <v>1000502</v>
@@ -2371,10 +2421,10 @@
         <v>1000502</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,7 +2432,7 @@
         <v>50103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E18" s="6">
         <v>1000503</v>
@@ -2391,10 +2441,10 @@
         <v>1000503</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2402,7 +2452,7 @@
         <v>50104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6">
         <v>1000504</v>
@@ -2411,10 +2461,10 @@
         <v>1000504</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2422,7 +2472,7 @@
         <v>60101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6">
         <v>1000601</v>
@@ -2440,7 +2490,7 @@
         <v>60102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6">
         <v>1000602</v>
@@ -2449,10 +2499,10 @@
         <v>1000602</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,7 +2510,7 @@
         <v>60103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6">
         <v>1000603</v>
@@ -2469,10 +2519,10 @@
         <v>1000603</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,7 +2530,7 @@
         <v>70101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E23" s="6">
         <v>1000701</v>
@@ -2498,7 +2548,7 @@
         <v>70102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6">
         <v>1000702</v>
@@ -2507,10 +2557,10 @@
         <v>1000702</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2518,7 +2568,7 @@
         <v>70103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E25" s="6">
         <v>1000703</v>
@@ -2527,10 +2577,10 @@
         <v>1000703</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,7 +2588,7 @@
         <v>70104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E26" s="6">
         <v>1000704</v>
@@ -2547,10 +2597,10 @@
         <v>1000704</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,7 +2608,7 @@
         <v>80101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E27" s="6">
         <v>1000801</v>
@@ -2576,7 +2626,7 @@
         <v>80102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E28" s="6">
         <v>1000802</v>
@@ -2585,10 +2635,10 @@
         <v>1000802</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2596,7 +2646,7 @@
         <v>90101</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E29" s="6">
         <v>1000901</v>
@@ -2614,7 +2664,7 @@
         <v>90102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E30" s="6">
         <v>1000902</v>
@@ -2623,10 +2673,10 @@
         <v>1000902</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2634,7 +2684,7 @@
         <v>90103</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E31" s="6">
         <v>1000903</v>
@@ -2643,10 +2693,10 @@
         <v>1000903</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2654,7 +2704,7 @@
         <v>90104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E32" s="6">
         <v>1000904</v>
@@ -2663,10 +2713,10 @@
         <v>1000904</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2674,7 +2724,7 @@
         <v>100101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E33" s="6">
         <v>1001001</v>
@@ -2692,7 +2742,7 @@
         <v>100102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E34" s="6">
         <v>1001002</v>
@@ -2701,10 +2751,10 @@
         <v>1001002</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2712,7 +2762,7 @@
         <v>100103</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E35" s="6">
         <v>1001003</v>
@@ -2721,10 +2771,10 @@
         <v>1001003</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2732,7 +2782,7 @@
         <v>100104</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E36" s="6">
         <v>1001004</v>
@@ -2741,10 +2791,10 @@
         <v>1001004</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2752,7 +2802,7 @@
         <v>110101</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E37" s="6">
         <v>1001101</v>
@@ -2770,7 +2820,7 @@
         <v>110102</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E38" s="6">
         <v>1001102</v>
@@ -2779,10 +2829,10 @@
         <v>1001102</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2790,7 +2840,7 @@
         <v>110103</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E39" s="6">
         <v>1001103</v>
@@ -2799,10 +2849,10 @@
         <v>1001103</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2810,7 +2860,7 @@
         <v>120101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E40" s="6">
         <v>1001201</v>
@@ -2828,7 +2878,7 @@
         <v>120102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E41" s="6">
         <v>1001202</v>
@@ -2837,10 +2887,10 @@
         <v>1001202</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,7 +2898,7 @@
         <v>120103</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E42" s="6">
         <v>1001203</v>
@@ -2857,10 +2907,10 @@
         <v>1001203</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2868,7 +2918,7 @@
         <v>130101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E43" s="6">
         <v>1001301</v>
@@ -2886,7 +2936,7 @@
         <v>130102</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E44" s="6">
         <v>1001302</v>
@@ -2895,10 +2945,10 @@
         <v>1001302</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2906,7 +2956,7 @@
         <v>130103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E45" s="6">
         <v>1001303</v>
@@ -2915,10 +2965,10 @@
         <v>1001303</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2926,7 +2976,7 @@
         <v>130104</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E46" s="6">
         <v>1001304</v>
@@ -2935,10 +2985,10 @@
         <v>1001304</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2946,7 +2996,7 @@
         <v>140101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E47" s="6">
         <v>1001401</v>
@@ -2964,7 +3014,7 @@
         <v>140102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E48" s="6">
         <v>1001402</v>
@@ -2973,10 +3023,10 @@
         <v>1001402</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2984,7 +3034,7 @@
         <v>140103</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E49" s="6">
         <v>1001403</v>
@@ -2993,10 +3043,10 @@
         <v>1001403</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,7 +3054,7 @@
         <v>910101</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E50" s="6">
         <v>1009101</v>
@@ -3022,7 +3072,7 @@
         <v>910102</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
         <v>1009102</v>
@@ -3031,10 +3081,10 @@
         <v>1009102</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3042,7 +3092,7 @@
         <v>910103</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E52" s="6">
         <v>1009103</v>
@@ -3051,10 +3101,10 @@
         <v>1009103</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3062,7 +3112,7 @@
         <v>910104</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E53" s="6">
         <v>1009104</v>
@@ -3071,10 +3121,10 @@
         <v>1009104</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3082,7 +3132,7 @@
         <v>920101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E54" s="6">
         <v>1009201</v>
@@ -3100,7 +3150,7 @@
         <v>920102</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E55" s="6">
         <v>1009202</v>
@@ -3109,10 +3159,10 @@
         <v>1009202</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3120,7 +3170,7 @@
         <v>920103</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E56" s="6">
         <v>1009203</v>
@@ -3129,10 +3179,10 @@
         <v>1009203</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,7 +3190,7 @@
         <v>920104</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E57" s="6">
         <v>1009204</v>
@@ -3149,10 +3199,10 @@
         <v>1009204</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3160,7 +3210,7 @@
         <v>930101</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E58" s="6">
         <v>1009301</v>
@@ -3177,8 +3227,8 @@
       <c r="C59" s="6">
         <v>930102</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>60</v>
+      <c r="D59" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E59" s="6">
         <v>1009302</v>
@@ -3187,18 +3237,18 @@
         <v>1009302</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <v>930103</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>60</v>
+      <c r="D60" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E60" s="6">
         <v>1009303</v>
@@ -3207,18 +3257,18 @@
         <v>1009303</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
         <v>930104</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>60</v>
+      <c r="D61" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E61" s="6">
         <v>1009304</v>
@@ -3227,10 +3277,10 @@
         <v>1009304</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,7 +3288,7 @@
         <v>200001</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E62" s="6">
         <v>2000001</v>
@@ -3247,10 +3297,10 @@
         <v>2000001</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3258,7 +3308,7 @@
         <v>200002</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E63" s="6">
         <v>2000002</v>
@@ -3267,10 +3317,10 @@
         <v>2000002</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3278,7 +3328,7 @@
         <v>200003</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E64" s="6">
         <v>2000003</v>
@@ -3287,10 +3337,10 @@
         <v>2000003</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF35CC1-2670-407D-93BE-99BD5F2C3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB78589-0FCB-4126-8814-940F608ED8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>铁甲勇士</t>
   </si>
   <si>
-    <t>迷狐之妖</t>
-  </si>
-  <si>
     <t>爱心之灵</t>
   </si>
   <si>
@@ -274,10 +271,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>变异:迷狐之妖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>变异:爱心之灵</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -291,6 +284,14 @@
   </si>
   <si>
     <t>神兽:仙界魔龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:灵狐之妖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵狐之妖</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2121,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2220,7 +2221,7 @@
         <v>10102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6">
         <v>1000102</v>
@@ -2229,10 +2230,10 @@
         <v>1000102</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2258,7 +2259,7 @@
         <v>20102</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6">
         <v>1000202</v>
@@ -2267,10 +2268,10 @@
         <v>1000202</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2296,7 +2297,7 @@
         <v>30102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6">
         <v>1000302</v>
@@ -2305,10 +2306,10 @@
         <v>1000302</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,7 +2335,7 @@
         <v>40102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6">
         <v>1000402</v>
@@ -2343,10 +2344,10 @@
         <v>1000402</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2354,7 +2355,7 @@
         <v>40103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6">
         <v>1000403</v>
@@ -2363,10 +2364,10 @@
         <v>1000403</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2374,7 +2375,7 @@
         <v>40104</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6">
         <v>1000404</v>
@@ -2383,10 +2384,10 @@
         <v>1000404</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2412,7 +2413,7 @@
         <v>50102</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6">
         <v>1000502</v>
@@ -2421,10 +2422,10 @@
         <v>1000502</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2432,7 +2433,7 @@
         <v>50103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6">
         <v>1000503</v>
@@ -2441,10 +2442,10 @@
         <v>1000503</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2452,7 +2453,7 @@
         <v>50104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="6">
         <v>1000504</v>
@@ -2461,10 +2462,10 @@
         <v>1000504</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,7 +2491,7 @@
         <v>60102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="6">
         <v>1000602</v>
@@ -2499,10 +2500,10 @@
         <v>1000602</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2510,7 +2511,7 @@
         <v>60103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="6">
         <v>1000603</v>
@@ -2519,10 +2520,10 @@
         <v>1000603</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2548,7 +2549,7 @@
         <v>70102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="6">
         <v>1000702</v>
@@ -2557,10 +2558,10 @@
         <v>1000702</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,7 +2569,7 @@
         <v>70103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="6">
         <v>1000703</v>
@@ -2577,10 +2578,10 @@
         <v>1000703</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2588,7 +2589,7 @@
         <v>70104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="6">
         <v>1000704</v>
@@ -2597,10 +2598,10 @@
         <v>1000704</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2626,7 +2627,7 @@
         <v>80102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="6">
         <v>1000802</v>
@@ -2635,10 +2636,10 @@
         <v>1000802</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2646,7 +2647,7 @@
         <v>90101</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="6">
         <v>1000901</v>
@@ -2664,7 +2665,7 @@
         <v>90102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="6">
         <v>1000902</v>
@@ -2673,10 +2674,10 @@
         <v>1000902</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2684,7 +2685,7 @@
         <v>90103</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6">
         <v>1000903</v>
@@ -2693,10 +2694,10 @@
         <v>1000903</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2704,7 +2705,7 @@
         <v>90104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="6">
         <v>1000904</v>
@@ -2713,10 +2714,10 @@
         <v>1000904</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2742,7 +2743,7 @@
         <v>100102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="6">
         <v>1001002</v>
@@ -2751,10 +2752,10 @@
         <v>1001002</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,7 +2763,7 @@
         <v>100103</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="6">
         <v>1001003</v>
@@ -2771,10 +2772,10 @@
         <v>1001003</v>
       </c>
       <c r="G35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2782,7 +2783,7 @@
         <v>100104</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="6">
         <v>1001004</v>
@@ -2791,10 +2792,10 @@
         <v>1001004</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2820,7 +2821,7 @@
         <v>110102</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="6">
         <v>1001102</v>
@@ -2829,10 +2830,10 @@
         <v>1001102</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2840,7 +2841,7 @@
         <v>110103</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="6">
         <v>1001103</v>
@@ -2849,10 +2850,10 @@
         <v>1001103</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,7 +2861,7 @@
         <v>120101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="6">
         <v>1001201</v>
@@ -2878,7 +2879,7 @@
         <v>120102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="6">
         <v>1001202</v>
@@ -2887,10 +2888,10 @@
         <v>1001202</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,7 +2899,7 @@
         <v>120103</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="6">
         <v>1001203</v>
@@ -2907,10 +2908,10 @@
         <v>1001203</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,7 +2937,7 @@
         <v>130102</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="6">
         <v>1001302</v>
@@ -2945,10 +2946,10 @@
         <v>1001302</v>
       </c>
       <c r="G44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,7 +2957,7 @@
         <v>130103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="6">
         <v>1001303</v>
@@ -2965,10 +2966,10 @@
         <v>1001303</v>
       </c>
       <c r="G45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2976,7 +2977,7 @@
         <v>130104</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="6">
         <v>1001304</v>
@@ -2985,10 +2986,10 @@
         <v>1001304</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3014,7 +3015,7 @@
         <v>140102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="6">
         <v>1001402</v>
@@ -3023,10 +3024,10 @@
         <v>1001402</v>
       </c>
       <c r="G48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3034,7 +3035,7 @@
         <v>140103</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="6">
         <v>1001403</v>
@@ -3043,10 +3044,10 @@
         <v>1001403</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3072,7 +3073,7 @@
         <v>910102</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="6">
         <v>1009102</v>
@@ -3081,10 +3082,10 @@
         <v>1009102</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3092,7 +3093,7 @@
         <v>910103</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" s="6">
         <v>1009103</v>
@@ -3101,10 +3102,10 @@
         <v>1009103</v>
       </c>
       <c r="G52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3112,7 +3113,7 @@
         <v>910104</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="6">
         <v>1009104</v>
@@ -3121,10 +3122,10 @@
         <v>1009104</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3132,7 +3133,7 @@
         <v>920101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E54" s="6">
         <v>1009201</v>
@@ -3150,7 +3151,7 @@
         <v>920102</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E55" s="6">
         <v>1009202</v>
@@ -3159,10 +3160,10 @@
         <v>1009202</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3170,7 +3171,7 @@
         <v>920103</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E56" s="6">
         <v>1009203</v>
@@ -3179,10 +3180,10 @@
         <v>1009203</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3190,7 +3191,7 @@
         <v>920104</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E57" s="6">
         <v>1009204</v>
@@ -3199,10 +3200,10 @@
         <v>1009204</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3210,7 +3211,7 @@
         <v>930101</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58" s="6">
         <v>1009301</v>
@@ -3228,7 +3229,7 @@
         <v>930102</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6">
         <v>1009302</v>
@@ -3237,10 +3238,10 @@
         <v>1009302</v>
       </c>
       <c r="G59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3248,7 +3249,7 @@
         <v>930103</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="6">
         <v>1009303</v>
@@ -3257,10 +3258,10 @@
         <v>1009303</v>
       </c>
       <c r="G60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3268,7 +3269,7 @@
         <v>930104</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E61" s="6">
         <v>1009304</v>
@@ -3277,10 +3278,10 @@
         <v>1009304</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3288,7 +3289,7 @@
         <v>200001</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E62" s="6">
         <v>2000001</v>
@@ -3297,10 +3298,10 @@
         <v>2000001</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3308,7 +3309,7 @@
         <v>200002</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E63" s="6">
         <v>2000002</v>
@@ -3317,10 +3318,10 @@
         <v>2000002</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,7 +3329,7 @@
         <v>200003</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E64" s="6">
         <v>2000003</v>
@@ -3337,10 +3338,10 @@
         <v>2000003</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB78589-0FCB-4126-8814-940F608ED8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05236CB9-534D-4EF0-9625-6F39C02F6122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -58,240 +58,188 @@
     <t>string</t>
   </si>
   <si>
+    <t>铁甲勇士</t>
+  </si>
+  <si>
+    <t>爱心之灵</t>
+  </si>
+  <si>
+    <t>PripertySet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.03;100402,0.03;100602,0.03;100802,0.03;101002,0.03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性提升3%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性提升1%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性提升5%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.01;100402,0.01;100602,0.01;100802,0.01;101002,0.01</t>
+  </si>
+  <si>
+    <t>100202,0.05;100402,0.05;100602,0.05;100802,0.05;101002,0.05</t>
+  </si>
+  <si>
+    <t>100202,0.02;100402,0.02;100602,0.02;100802,0.02;101002,0.02</t>
+  </si>
+  <si>
+    <t>全属性提升2%</t>
+  </si>
+  <si>
+    <t>全属性提升10%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.1;100402,0.1;100602,0.1;100802,0.1;101002,0.1</t>
+  </si>
+  <si>
+    <t>雷霆猪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法娃娃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:魔法娃娃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:铁甲勇士</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:爱心之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:幽光晴晴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:灵狐之妖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵狐之妖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>呆呆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:呆呆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>松松</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:松松</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>灰灰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:灰灰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小掌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:小掌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小红</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:小红</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小蓝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:小蓝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>小绿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:小绿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>啵啵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:啵啵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:雷霆猪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>乌贼女士</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:乌贼女士</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>魔法精灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:魔法精灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>淘气叮叮</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:淘气叮叮</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>光明天使</t>
-  </si>
-  <si>
-    <t>铁甲勇士</t>
-  </si>
-  <si>
-    <t>爱心之灵</t>
-  </si>
-  <si>
-    <t>PripertySet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.03;100402,0.03;100602,0.03;100802,0.03;101002,0.03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全属性提升3%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全属性提升1%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全属性提升5%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.01;100402,0.01;100602,0.01;100802,0.01;101002,0.01</t>
-  </si>
-  <si>
-    <t>100202,0.05;100402,0.05;100602,0.05;100802,0.05;101002,0.05</t>
-  </si>
-  <si>
-    <t>100202,0.02;100402,0.02;100602,0.02;100802,0.02;101002,0.02</t>
-  </si>
-  <si>
-    <t>全属性提升2%</t>
-  </si>
-  <si>
-    <t>全属性提升10%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.1;100402,0.1;100602,0.1;100802,0.1;101002,0.1</t>
-  </si>
-  <si>
-    <t>变异:笨笨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:咪咪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:冰雪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:灵灵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:牛仔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:花花</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:咻咻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:绿芽</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:冰冰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:乐乐</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:飞飞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:小爱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:小冰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:火火</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:萌萌</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆猪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:岩石猪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:火焰猪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:熔岩猪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:黑暗乌贼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:乌贼男士</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:乌贼女皇</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:森林之灵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:耀眼之灵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法娃娃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:森林娃娃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:魔法娃娃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:淘气包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:淘气森林</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:淘气当当</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:蓝灵天使</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:黑暗天使</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:铁甲勇士</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:爱心之灵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神兽:精灵麋鹿</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神兽:幽光晴晴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神兽:仙界魔龙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异:灵狐之妖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵狐之妖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异:光明天使</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2122,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2170,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -2202,7 +2150,7 @@
         <v>10101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6">
         <v>1000101</v>
@@ -2221,7 +2169,7 @@
         <v>10102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6">
         <v>1000102</v>
@@ -2230,10 +2178,10 @@
         <v>1000102</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2241,7 +2189,7 @@
         <v>20101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6">
         <v>1000201</v>
@@ -2268,10 +2216,10 @@
         <v>1000202</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2227,7 @@
         <v>30101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6">
         <v>1000301</v>
@@ -2297,7 +2245,7 @@
         <v>30102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6">
         <v>1000302</v>
@@ -2306,10 +2254,10 @@
         <v>1000302</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2317,7 +2265,7 @@
         <v>40101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6">
         <v>1000401</v>
@@ -2335,7 +2283,7 @@
         <v>40102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6">
         <v>1000402</v>
@@ -2344,10 +2292,10 @@
         <v>1000402</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2303,7 @@
         <v>40103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>1000403</v>
@@ -2364,10 +2312,10 @@
         <v>1000403</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2384,10 +2332,10 @@
         <v>1000404</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2395,7 +2343,7 @@
         <v>50101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6">
         <v>1000501</v>
@@ -2413,7 +2361,7 @@
         <v>50102</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6">
         <v>1000502</v>
@@ -2422,10 +2370,10 @@
         <v>1000502</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2442,10 +2390,10 @@
         <v>1000503</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2453,7 +2401,7 @@
         <v>50104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="6">
         <v>1000504</v>
@@ -2462,10 +2410,10 @@
         <v>1000504</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2473,7 +2421,7 @@
         <v>60101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6">
         <v>1000601</v>
@@ -2500,10 +2448,10 @@
         <v>1000602</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2511,7 +2459,7 @@
         <v>60103</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6">
         <v>1000603</v>
@@ -2520,10 +2468,10 @@
         <v>1000603</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,7 +2479,7 @@
         <v>70101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E23" s="6">
         <v>1000701</v>
@@ -2558,10 +2506,10 @@
         <v>1000702</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,7 +2517,7 @@
         <v>70103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="6">
         <v>1000703</v>
@@ -2578,10 +2526,10 @@
         <v>1000703</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,7 +2537,7 @@
         <v>70104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6">
         <v>1000704</v>
@@ -2598,10 +2546,10 @@
         <v>1000704</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,7 +2557,7 @@
         <v>80101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E27" s="6">
         <v>1000801</v>
@@ -2627,7 +2575,7 @@
         <v>80102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6">
         <v>1000802</v>
@@ -2636,10 +2584,10 @@
         <v>1000802</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,7 +2595,7 @@
         <v>90101</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E29" s="6">
         <v>1000901</v>
@@ -2665,7 +2613,7 @@
         <v>90102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="6">
         <v>1000902</v>
@@ -2674,10 +2622,10 @@
         <v>1000902</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,7 +2633,7 @@
         <v>90103</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E31" s="6">
         <v>1000903</v>
@@ -2694,10 +2642,10 @@
         <v>1000903</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2705,7 +2653,7 @@
         <v>90104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E32" s="6">
         <v>1000904</v>
@@ -2714,10 +2662,10 @@
         <v>1000904</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2725,7 +2673,7 @@
         <v>100101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E33" s="6">
         <v>1001001</v>
@@ -2743,7 +2691,7 @@
         <v>100102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6">
         <v>1001002</v>
@@ -2752,10 +2700,10 @@
         <v>1001002</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2763,7 +2711,7 @@
         <v>100103</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6">
         <v>1001003</v>
@@ -2772,10 +2720,10 @@
         <v>1001003</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2783,7 +2731,7 @@
         <v>100104</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6">
         <v>1001004</v>
@@ -2792,10 +2740,10 @@
         <v>1001004</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2803,7 +2751,7 @@
         <v>110101</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E37" s="6">
         <v>1001101</v>
@@ -2821,7 +2769,7 @@
         <v>110102</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E38" s="6">
         <v>1001102</v>
@@ -2830,10 +2778,10 @@
         <v>1001102</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,7 +2789,7 @@
         <v>110103</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E39" s="6">
         <v>1001103</v>
@@ -2850,10 +2798,10 @@
         <v>1001103</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2861,7 +2809,7 @@
         <v>120101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E40" s="6">
         <v>1001201</v>
@@ -2879,7 +2827,7 @@
         <v>120102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E41" s="6">
         <v>1001202</v>
@@ -2888,10 +2836,10 @@
         <v>1001202</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2899,7 +2847,7 @@
         <v>120103</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E42" s="6">
         <v>1001203</v>
@@ -2908,10 +2856,10 @@
         <v>1001203</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,7 +2867,7 @@
         <v>130101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E43" s="6">
         <v>1001301</v>
@@ -2937,7 +2885,7 @@
         <v>130102</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E44" s="6">
         <v>1001302</v>
@@ -2946,10 +2894,10 @@
         <v>1001302</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2957,7 +2905,7 @@
         <v>130103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E45" s="6">
         <v>1001303</v>
@@ -2966,10 +2914,10 @@
         <v>1001303</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,7 +2925,7 @@
         <v>130104</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E46" s="6">
         <v>1001304</v>
@@ -2986,10 +2934,10 @@
         <v>1001304</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,7 +2945,7 @@
         <v>140101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E47" s="6">
         <v>1001401</v>
@@ -3015,7 +2963,7 @@
         <v>140102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E48" s="6">
         <v>1001402</v>
@@ -3024,10 +2972,10 @@
         <v>1001402</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3035,7 +2983,7 @@
         <v>140103</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E49" s="6">
         <v>1001403</v>
@@ -3044,10 +2992,10 @@
         <v>1001403</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3055,7 +3003,7 @@
         <v>910101</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E50" s="6">
         <v>1009101</v>
@@ -3073,7 +3021,7 @@
         <v>910102</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E51" s="6">
         <v>1009102</v>
@@ -3082,10 +3030,10 @@
         <v>1009102</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3093,7 +3041,7 @@
         <v>910103</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E52" s="6">
         <v>1009103</v>
@@ -3102,10 +3050,10 @@
         <v>1009103</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3113,7 +3061,7 @@
         <v>910104</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E53" s="6">
         <v>1009104</v>
@@ -3122,10 +3070,10 @@
         <v>1009104</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3133,7 +3081,7 @@
         <v>920101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E54" s="6">
         <v>1009201</v>
@@ -3151,7 +3099,7 @@
         <v>920102</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E55" s="6">
         <v>1009202</v>
@@ -3160,10 +3108,10 @@
         <v>1009202</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3171,7 +3119,7 @@
         <v>920103</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E56" s="6">
         <v>1009203</v>
@@ -3180,10 +3128,10 @@
         <v>1009203</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3191,7 +3139,7 @@
         <v>920104</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E57" s="6">
         <v>1009204</v>
@@ -3200,10 +3148,10 @@
         <v>1009204</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3211,7 +3159,7 @@
         <v>930101</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E58" s="6">
         <v>1009301</v>
@@ -3229,7 +3177,7 @@
         <v>930102</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E59" s="6">
         <v>1009302</v>
@@ -3238,10 +3186,10 @@
         <v>1009302</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,7 +3197,7 @@
         <v>930103</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E60" s="6">
         <v>1009303</v>
@@ -3258,10 +3206,10 @@
         <v>1009303</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3269,7 +3217,7 @@
         <v>930104</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E61" s="6">
         <v>1009304</v>
@@ -3278,10 +3226,10 @@
         <v>1009304</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3289,7 +3237,7 @@
         <v>200001</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E62" s="6">
         <v>2000001</v>
@@ -3298,10 +3246,10 @@
         <v>2000001</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3309,7 +3257,7 @@
         <v>200002</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E63" s="6">
         <v>2000002</v>
@@ -3318,10 +3266,10 @@
         <v>2000002</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3329,7 +3277,7 @@
         <v>200003</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E64" s="6">
         <v>2000003</v>
@@ -3338,10 +3286,10 @@
         <v>2000003</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/PetSkinConfig.xlsx
+++ b/Excel/PetSkinConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05236CB9-534D-4EF0-9625-6F39C02F6122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B507B8-82EA-4302-8D30-3F16F31347E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MysteryConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -76,24 +76,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>全属性提升1%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>全属性提升5%</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100202,0.01;100402,0.01;100602,0.01;100802,0.01;101002,0.01</t>
-  </si>
-  <si>
     <t>100202,0.05;100402,0.05;100602,0.05;100802,0.05;101002,0.05</t>
-  </si>
-  <si>
-    <t>100202,0.02;100402,0.02;100602,0.02;100802,0.02;101002,0.02</t>
-  </si>
-  <si>
-    <t>全属性提升2%</t>
   </si>
   <si>
     <t>全属性提升10%</t>
@@ -2070,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2150,7 +2137,7 @@
         <v>10101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6">
         <v>1000101</v>
@@ -2169,7 +2156,7 @@
         <v>10102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6">
         <v>1000102</v>
@@ -2178,10 +2165,10 @@
         <v>1000102</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2189,7 +2176,7 @@
         <v>20101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6">
         <v>1000201</v>
@@ -2207,7 +2194,7 @@
         <v>20102</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6">
         <v>1000202</v>
@@ -2216,10 +2203,10 @@
         <v>1000202</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,7 +2214,7 @@
         <v>30101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6">
         <v>1000301</v>
@@ -2245,7 +2232,7 @@
         <v>30102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6">
         <v>1000302</v>
@@ -2254,10 +2241,10 @@
         <v>1000302</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,7 +2252,7 @@
         <v>40101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6">
         <v>1000401</v>
@@ -2283,7 +2270,7 @@
         <v>40102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6">
         <v>1000402</v>
@@ -2292,7 +2279,7 @@
         <v>1000402</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>17</v>
@@ -2300,10 +2287,10 @@
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
-        <v>40103</v>
+        <v>401031</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6">
         <v>1000403</v>
@@ -2320,10 +2307,10 @@
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="6">
-        <v>40104</v>
+        <v>401042</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6">
         <v>1000404</v>
@@ -2332,10 +2319,10 @@
         <v>1000404</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2343,7 +2330,7 @@
         <v>50101</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6">
         <v>1000501</v>
@@ -2361,7 +2348,7 @@
         <v>50102</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="6">
         <v>1000502</v>
@@ -2370,18 +2357,18 @@
         <v>1000502</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6">
-        <v>50103</v>
+        <v>501031</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6">
         <v>1000503</v>
@@ -2398,10 +2385,10 @@
     </row>
     <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6">
-        <v>50104</v>
+        <v>501041</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6">
         <v>1000504</v>
@@ -2410,10 +2397,10 @@
         <v>1000504</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2421,7 +2408,7 @@
         <v>60101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6">
         <v>1000601</v>
@@ -2439,7 +2426,7 @@
         <v>60102</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21" s="6">
         <v>1000602</v>
@@ -2448,18 +2435,18 @@
         <v>1000602</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="6">
-        <v>60103</v>
+        <v>601031</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6">
         <v>1000603</v>
@@ -2468,10 +2455,10 @@
         <v>1000603</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2479,7 +2466,7 @@
         <v>70101</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="6">
         <v>1000701</v>
@@ -2497,7 +2484,7 @@
         <v>70102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" s="6">
         <v>1000702</v>
@@ -2506,18 +2493,18 @@
         <v>1000702</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="6">
-        <v>70103</v>
+        <v>701031</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6">
         <v>1000703</v>
@@ -2534,10 +2521,10 @@
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
-        <v>70104</v>
+        <v>701041</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26" s="6">
         <v>1000704</v>
@@ -2546,10 +2533,10 @@
         <v>1000704</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2557,7 +2544,7 @@
         <v>80101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27" s="6">
         <v>1000801</v>
@@ -2575,7 +2562,7 @@
         <v>80102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28" s="6">
         <v>1000802</v>
@@ -2584,10 +2571,10 @@
         <v>1000802</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2595,7 +2582,7 @@
         <v>90101</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E29" s="6">
         <v>1000901</v>
@@ -2613,7 +2600,7 @@
         <v>90102</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E30" s="6">
         <v>1000902</v>
@@ -2622,18 +2609,18 @@
         <v>1000902</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="6">
-        <v>90103</v>
+        <v>901031</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E31" s="6">
         <v>1000903</v>
@@ -2650,10 +2637,10 @@
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="6">
-        <v>90104</v>
+        <v>901041</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E32" s="6">
         <v>1000904</v>
@@ -2662,10 +2649,10 @@
         <v>1000904</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,7 +2660,7 @@
         <v>100101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E33" s="6">
         <v>1001001</v>
@@ -2691,7 +2678,7 @@
         <v>100102</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E34" s="6">
         <v>1001002</v>
@@ -2700,18 +2687,18 @@
         <v>1001002</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="6">
-        <v>100103</v>
+        <v>1001031</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E35" s="6">
         <v>1001003</v>
@@ -2728,10 +2715,10 @@
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="6">
-        <v>100104</v>
+        <v>1001041</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="6">
         <v>1001004</v>
@@ -2740,10 +2727,10 @@
         <v>1001004</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2751,7 +2738,7 @@
         <v>110101</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E37" s="6">
         <v>1001101</v>
@@ -2769,7 +2756,7 @@
         <v>110102</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E38" s="6">
         <v>1001102</v>
@@ -2778,18 +2765,18 @@
         <v>1001102</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6">
-        <v>110103</v>
+        <v>1101031</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E39" s="6">
         <v>1001103</v>
@@ -2798,10 +2785,10 @@
         <v>1001103</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2809,7 +2796,7 @@
         <v>120101</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E40" s="6">
         <v>1001201</v>
@@ -2827,7 +2814,7 @@
         <v>120102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E41" s="6">
         <v>1001202</v>
@@ -2836,18 +2823,18 @@
         <v>1001202</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="6">
-        <v>120103</v>
+        <v>1201031</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E42" s="6">
         <v>1001203</v>
@@ -2856,10 +2843,10 @@
         <v>1001203</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2867,7 +2854,7 @@
         <v>130101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E43" s="6">
         <v>1001301</v>
@@ -2885,7 +2872,7 @@
         <v>130102</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E44" s="6">
         <v>1001302</v>
@@ -2894,18 +2881,18 @@
         <v>1001302</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="6">
-        <v>130103</v>
+        <v>1301031</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6">
         <v>1001303</v>
@@ -2922,10 +2909,10 @@
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="6">
-        <v>130104</v>
+        <v>1301041</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E46" s="6">
         <v>1001304</v>
@@ -2934,10 +2921,10 @@
         <v>1001304</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2945,7 +2932,7 @@
         <v>140101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E47" s="6">
         <v>1001401</v>
@@ -2963,7 +2950,7 @@
         <v>140102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E48" s="6">
         <v>1001402</v>
@@ -2972,18 +2959,18 @@
         <v>1001402</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="6">
-        <v>140103</v>
+        <v>1401031</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E49" s="6">
         <v>1001403</v>
@@ -2992,10 +2979,10 @@
         <v>1001403</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,7 +3008,7 @@
         <v>910102</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E51" s="6">
         <v>1009102</v>
@@ -3030,18 +3017,18 @@
         <v>1009102</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="6">
-        <v>910103</v>
+        <v>9101031</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E52" s="6">
         <v>1009103</v>
@@ -3058,10 +3045,10 @@
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="6">
-        <v>910104</v>
+        <v>9101041</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E53" s="6">
         <v>1009104</v>
@@ -3070,10 +3057,10 @@
         <v>1009104</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3081,7 +3068,7 @@
         <v>920101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E54" s="6">
         <v>1009201</v>
@@ -3099,7 +3086,7 @@
         <v>920102</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E55" s="6">
         <v>1009202</v>
@@ -3108,18 +3095,18 @@
         <v>1009202</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="6">
-        <v>920103</v>
+        <v>9201031</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E56" s="6">
         <v>1009203</v>
@@ -3136,10 +3123,10 @@
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="6">
-        <v>920104</v>
+        <v>9201041</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E57" s="6">
         <v>1009204</v>
@@ -3148,10 +3135,10 @@
         <v>1009204</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3177,7 +3164,7 @@
         <v>930102</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E59" s="6">
         <v>1009302</v>
@@ -3186,18 +3173,18 @@
         <v>1009302</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
-        <v>930103</v>
+        <v>9301031</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E60" s="6">
         <v>1009303</v>
@@ -3214,10 +3201,10 @@
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="6">
-        <v>930104</v>
+        <v>9301041</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E61" s="6">
         <v>1009304</v>
@@ -3226,10 +3213,10 @@
         <v>1009304</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3237,7 +3224,7 @@
         <v>200001</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E62" s="6">
         <v>2000001</v>
@@ -3246,10 +3233,10 @@
         <v>2000001</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3257,7 +3244,7 @@
         <v>200002</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E63" s="6">
         <v>2000002</v>
@@ -3266,10 +3253,10 @@
         <v>2000002</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3277,7 +3264,7 @@
         <v>200003</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E64" s="6">
         <v>2000003</v>
@@ -3286,10 +3273,10 @@
         <v>2000003</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
